--- a/Test case.xlsx
+++ b/Test case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C686C12D-27CA-45AF-B37C-831E0965E3F8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E3A547-51A8-4939-9FC5-21EDBD31F3A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,25 +273,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -577,7 +577,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,14 +615,14 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -631,48 +631,48 @@
       <c r="F2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="10"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
